--- a/formData.xlsx
+++ b/formData.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -422,10 +422,10 @@
         <v>countryCode</v>
       </c>
       <c r="G1" t="str">
+        <v>readableTimestamp</v>
+      </c>
+      <c r="H1" t="str">
         <v>timestamp</v>
-      </c>
-      <c r="H1" t="str">
-        <v>readableTimestamp</v>
       </c>
     </row>
     <row r="2">
@@ -447,13 +447,82 @@
       <c r="F2" t="str">
         <v>+40</v>
       </c>
-      <c r="H2" t="str">
+      <c r="G2" t="str">
         <v>11/18/2024, 2:12:18 AM</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1-2 Weeks</v>
+      </c>
+      <c r="C3" t="str">
+        <v>rktindia2003@gmail.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Ravikant Tiwari</v>
+      </c>
+      <c r="E3" t="str">
+        <v>8744883594</v>
+      </c>
+      <c r="F3" t="str">
+        <v>+40</v>
+      </c>
+      <c r="G3" t="str">
+        <v>11/18/2024, 10:29:33 PM</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1-2 Weeks</v>
+      </c>
+      <c r="C4" t="str">
+        <v>rktinida2003@gmail.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Ravikant Tiwari</v>
+      </c>
+      <c r="E4" t="str">
+        <v>8744883594</v>
+      </c>
+      <c r="F4" t="str">
+        <v>+40</v>
+      </c>
+      <c r="G4" t="str">
+        <v>11/18/2024, 10:37:25 PM</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1-2 Weeks</v>
+      </c>
+      <c r="C5" t="str">
+        <v>rtkindia2003@gmail.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Ravikant Tiwari</v>
+      </c>
+      <c r="E5" t="str">
+        <v>8744883594</v>
+      </c>
+      <c r="F5" t="str">
+        <v>+40</v>
+      </c>
+      <c r="G5" t="str">
+        <v>11/18/2024, 10:40:29 PM</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/formData.xlsx
+++ b/formData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -520,9 +520,32 @@
         <v>11/18/2024, 10:40:29 PM</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1-2 Weeks</v>
+      </c>
+      <c r="C6" t="str">
+        <v>rktindia2003@gmail.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Ravikant Tiwari</v>
+      </c>
+      <c r="E6" t="str">
+        <v>8744883594</v>
+      </c>
+      <c r="F6" t="str">
+        <v>+40</v>
+      </c>
+      <c r="G6" t="str">
+        <v>11/18/2024, 11:26:48 PM</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/formData.xlsx
+++ b/formData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -543,9 +543,32 @@
         <v>11/18/2024, 11:26:48 PM</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1-2 Weeks</v>
+      </c>
+      <c r="C7" t="str">
+        <v>rktindia2003@gmail.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Ravikant Tiwari</v>
+      </c>
+      <c r="E7" t="str">
+        <v>8744883594</v>
+      </c>
+      <c r="F7" t="str">
+        <v>+40</v>
+      </c>
+      <c r="G7" t="str">
+        <v>11/20/2024, 3:04:08 AM</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/formData.xlsx
+++ b/formData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -566,9 +566,101 @@
         <v>11/20/2024, 3:04:08 AM</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1-2 Weeks</v>
+      </c>
+      <c r="C8" t="str">
+        <v>tiwariravikant04@gmail.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Ravikant Tiwari</v>
+      </c>
+      <c r="E8" t="str">
+        <v>8744883594</v>
+      </c>
+      <c r="F8" t="str">
+        <v>+40</v>
+      </c>
+      <c r="G8" t="str">
+        <v>11/20/2024, 5:37:54 PM</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1-2 Weeks</v>
+      </c>
+      <c r="C9" t="str">
+        <v>tiwariravikant04@gmail.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Ravikant Tiwari</v>
+      </c>
+      <c r="E9" t="str">
+        <v>8744883594</v>
+      </c>
+      <c r="F9" t="str">
+        <v>+40</v>
+      </c>
+      <c r="G9" t="str">
+        <v>11/20/2024, 5:41:57 PM</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="B10" t="str">
+        <v>1-2 Weeks</v>
+      </c>
+      <c r="C10" t="str">
+        <v>tiwariravikant04@gmail.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Ravikant Tiwari</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0744883594</v>
+      </c>
+      <c r="F10" t="str">
+        <v>+40</v>
+      </c>
+      <c r="G10" t="str">
+        <v>11/20/2024, 5:43:27 PM</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Travel</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1-2 Weeks</v>
+      </c>
+      <c r="C11" t="str">
+        <v>tiwariravikant04@gmail.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Ravikant Tiwari</v>
+      </c>
+      <c r="E11" t="str">
+        <v>8744883594</v>
+      </c>
+      <c r="F11" t="str">
+        <v>+40</v>
+      </c>
+      <c r="G11" t="str">
+        <v>11/20/2024, 5:48:15 PM</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
   </ignoredErrors>
 </worksheet>
 </file>